--- a/Turma Intensivo - 439 - Noite Julho 2017/Aula 9/Excer - Aula Indice Corresp tuma noite .xlsx
+++ b/Turma Intensivo - 439 - Noite Julho 2017/Aula 9/Excer - Aula Indice Corresp tuma noite .xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="18229"/>
   <workbookPr filterPrivacy="1"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="15360" windowHeight="7545" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Indice" sheetId="1" r:id="rId1"/>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="47" uniqueCount="19">
   <si>
     <t>Vendedor</t>
   </si>
@@ -77,13 +77,17 @@
   <si>
     <t>Categoria Prod.</t>
   </si>
+  <si>
+    <t>Produto</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <numFmts count="1">
+  <numFmts count="2">
     <numFmt numFmtId="8" formatCode="&quot;R$&quot;\ #,##0.00;[Red]\-&quot;R$&quot;\ #,##0.00"/>
+    <numFmt numFmtId="165" formatCode="&quot;R$&quot;\ #,##0.00"/>
   </numFmts>
   <fonts count="6" x14ac:knownFonts="1">
     <font>
@@ -448,7 +452,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="41">
+  <cellXfs count="42">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="right"/>
@@ -495,6 +499,21 @@
     <xf numFmtId="0" fontId="3" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="8" fontId="0" fillId="3" borderId="7" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="8" fontId="0" fillId="3" borderId="8" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="8" fontId="0" fillId="3" borderId="9" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="8" fontId="0" fillId="3" borderId="11" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="8" fontId="0" fillId="3" borderId="12" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="8" fontId="0" fillId="3" borderId="13" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="8" fontId="0" fillId="3" borderId="17" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="8" fontId="0" fillId="3" borderId="18" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="8" fontId="0" fillId="3" borderId="19" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="8" fontId="0" fillId="3" borderId="20" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -513,26 +532,19 @@
     <xf numFmtId="8" fontId="1" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="8" fontId="0" fillId="3" borderId="7" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="8" fontId="0" fillId="3" borderId="8" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="8" fontId="0" fillId="3" borderId="9" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="8" fontId="0" fillId="3" borderId="11" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="8" fontId="0" fillId="3" borderId="12" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="8" fontId="0" fillId="3" borderId="13" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="8" fontId="0" fillId="3" borderId="17" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="8" fontId="0" fillId="3" borderId="18" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="8" fontId="0" fillId="3" borderId="19" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="8" fontId="0" fillId="3" borderId="20" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="3">
+  <dxfs count="4">
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="7" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <fill>
         <patternFill>
@@ -576,11 +588,15 @@
 </file>
 
 <file path=xl/ctrlProps/ctrlProp3.xml><?xml version="1.0" encoding="utf-8"?>
-<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="Drop" dropStyle="combo" dx="22" fmlaLink="$J$6" fmlaRange="$B$6:$B$13" noThreeD="1" sel="4" val="0"/>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="Drop" dropLines="3" dropStyle="combo" dx="22" fmlaLink="$J$6" fmlaRange="$B$6:$B$13" noThreeD="1" sel="4" val="2"/>
 </file>
 
 <file path=xl/ctrlProps/ctrlProp4.xml><?xml version="1.0" encoding="utf-8"?>
 <formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="Drop" dropStyle="combo" dx="22" fmlaLink="$J$7" fmlaRange="$D$15:$D$19" noThreeD="1" sel="4" val="0"/>
+</file>
+
+<file path=xl/ctrlProps/ctrlProp5.xml><?xml version="1.0" encoding="utf-8"?>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="Scroll" dx="22" fmlaLink="$J$6" max="8" min="1" page="10" val="4"/>
 </file>
 
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -608,7 +624,7 @@
                   <a14:compatExt spid="_x0000_s1025"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{BE3E3C53-22A8-49C6-BD5D-4A2D8B1CB282}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000001040000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -658,7 +674,7 @@
                   <a14:compatExt spid="_x0000_s1026"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FDC2819A-3B1C-4A52-B29D-A5EEDA2A0E0D}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000002040000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -708,7 +724,7 @@
                   <a14:compatExt spid="_x0000_s1027"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B0477E8E-F48E-4BE3-BE45-094BC9EBA272}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000003040000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -766,7 +782,7 @@
                   <a14:compatExt spid="_x0000_s1028"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D4FDBB2C-06A7-4C86-BF9C-83F93842C2DA}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000004040000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -794,6 +810,56 @@
                 </a14:hiddenLine>
               </a:ext>
             </a:extLst>
+          </xdr:spPr>
+        </xdr:sp>
+        <xdr:clientData/>
+      </xdr:twoCellAnchor>
+    </mc:Choice>
+    <mc:Fallback/>
+  </mc:AlternateContent>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+      <xdr:twoCellAnchor editAs="oneCell">
+        <xdr:from>
+          <xdr:col>10</xdr:col>
+          <xdr:colOff>790575</xdr:colOff>
+          <xdr:row>0</xdr:row>
+          <xdr:rowOff>161925</xdr:rowOff>
+        </xdr:from>
+        <xdr:to>
+          <xdr:col>11</xdr:col>
+          <xdr:colOff>200025</xdr:colOff>
+          <xdr:row>5</xdr:row>
+          <xdr:rowOff>19049</xdr:rowOff>
+        </xdr:to>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="1029" name="Barra de rolagem 5" hidden="1">
+              <a:extLst>
+                <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
+                  <a14:compatExt spid="_x0000_s1029"/>
+                </a:ext>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E4C02739-EE9C-4BD2-AD3F-2B5FED4467D9}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr bwMode="auto">
+            <a:xfrm>
+              <a:off x="0" y="0"/>
+              <a:ext cx="0" cy="0"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+            <a:ln w="9525">
+              <a:miter lim="800000"/>
+              <a:headEnd/>
+              <a:tailEnd/>
+            </a:ln>
           </xdr:spPr>
         </xdr:sp>
         <xdr:clientData/>
@@ -1069,8 +1135,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:J20"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B15" sqref="B15"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F9" sqref="F9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="13.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1084,14 +1150,14 @@
       <c r="B2" s="1"/>
     </row>
     <row r="3" spans="2:10" ht="26.25" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B3" s="24" t="s">
+      <c r="B3" s="37" t="s">
         <v>7</v>
       </c>
-      <c r="C3" s="24"/>
-      <c r="D3" s="24"/>
-      <c r="E3" s="24"/>
-      <c r="F3" s="24"/>
-      <c r="G3" s="24"/>
+      <c r="C3" s="37"/>
+      <c r="D3" s="37"/>
+      <c r="E3" s="37"/>
+      <c r="F3" s="37"/>
+      <c r="G3" s="37"/>
     </row>
     <row r="4" spans="2:10" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
       <c r="B4" s="1"/>
@@ -1115,28 +1181,28 @@
       <c r="G5" s="21">
         <v>2017</v>
       </c>
-      <c r="I5" s="22" t="s">
+      <c r="I5" s="35" t="s">
         <v>1</v>
       </c>
-      <c r="J5" s="23"/>
+      <c r="J5" s="36"/>
     </row>
     <row r="6" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B6" s="16" t="s">
         <v>9</v>
       </c>
-      <c r="C6" s="28">
+      <c r="C6" s="22">
         <v>14890</v>
       </c>
-      <c r="D6" s="29">
+      <c r="D6" s="23">
         <v>4498</v>
       </c>
-      <c r="E6" s="29">
+      <c r="E6" s="23">
         <v>13348</v>
       </c>
-      <c r="F6" s="29">
+      <c r="F6" s="23">
         <v>10897</v>
       </c>
-      <c r="G6" s="30">
+      <c r="G6" s="24">
         <v>344</v>
       </c>
       <c r="I6" s="5" t="s">
@@ -1150,19 +1216,19 @@
       <c r="B7" s="17" t="s">
         <v>10</v>
       </c>
-      <c r="C7" s="31">
+      <c r="C7" s="25">
         <v>11434</v>
       </c>
-      <c r="D7" s="32">
+      <c r="D7" s="26">
         <v>1210</v>
       </c>
-      <c r="E7" s="32">
+      <c r="E7" s="26">
         <v>5801</v>
       </c>
-      <c r="F7" s="32">
+      <c r="F7" s="26">
         <v>402</v>
       </c>
-      <c r="G7" s="33">
+      <c r="G7" s="27">
         <v>7844</v>
       </c>
       <c r="I7" s="5" t="s">
@@ -1176,19 +1242,19 @@
       <c r="B8" s="17" t="s">
         <v>11</v>
       </c>
-      <c r="C8" s="31">
+      <c r="C8" s="25">
         <v>1621</v>
       </c>
-      <c r="D8" s="32">
+      <c r="D8" s="26">
         <v>7782</v>
       </c>
-      <c r="E8" s="32">
+      <c r="E8" s="26">
         <v>7467</v>
       </c>
-      <c r="F8" s="32">
+      <c r="F8" s="26">
         <v>14238</v>
       </c>
-      <c r="G8" s="33">
+      <c r="G8" s="27">
         <v>2706</v>
       </c>
     </row>
@@ -1196,43 +1262,43 @@
       <c r="B9" s="17" t="s">
         <v>12</v>
       </c>
-      <c r="C9" s="31">
+      <c r="C9" s="25">
         <v>9539</v>
       </c>
-      <c r="D9" s="32">
+      <c r="D9" s="26">
         <v>3835</v>
       </c>
-      <c r="E9" s="32">
+      <c r="E9" s="26">
         <v>10434</v>
       </c>
-      <c r="F9" s="32">
+      <c r="F9" s="26">
         <v>12522</v>
       </c>
-      <c r="G9" s="33">
+      <c r="G9" s="27">
         <v>2794</v>
       </c>
-      <c r="I9" s="22" t="s">
+      <c r="I9" s="35" t="s">
         <v>4</v>
       </c>
-      <c r="J9" s="23"/>
+      <c r="J9" s="36"/>
     </row>
     <row r="10" spans="2:10" ht="18.75" x14ac:dyDescent="0.3">
       <c r="B10" s="17" t="s">
         <v>13</v>
       </c>
-      <c r="C10" s="31">
+      <c r="C10" s="25">
         <v>7979</v>
       </c>
-      <c r="D10" s="32">
+      <c r="D10" s="26">
         <v>6791</v>
       </c>
-      <c r="E10" s="32">
+      <c r="E10" s="26">
         <v>12682</v>
       </c>
-      <c r="F10" s="32">
+      <c r="F10" s="26">
         <v>12819</v>
       </c>
-      <c r="G10" s="33">
+      <c r="G10" s="27">
         <v>14077</v>
       </c>
       <c r="I10" s="10">
@@ -1245,19 +1311,19 @@
       <c r="B11" s="17" t="s">
         <v>14</v>
       </c>
-      <c r="C11" s="31">
+      <c r="C11" s="25">
         <v>10712</v>
       </c>
-      <c r="D11" s="32">
+      <c r="D11" s="26">
         <v>11979</v>
       </c>
-      <c r="E11" s="32">
+      <c r="E11" s="26">
         <v>3027</v>
       </c>
-      <c r="F11" s="32">
+      <c r="F11" s="26">
         <v>2915</v>
       </c>
-      <c r="G11" s="33">
+      <c r="G11" s="27">
         <v>2128</v>
       </c>
     </row>
@@ -1265,19 +1331,19 @@
       <c r="B12" s="17" t="s">
         <v>15</v>
       </c>
-      <c r="C12" s="31">
+      <c r="C12" s="25">
         <v>14601</v>
       </c>
-      <c r="D12" s="32">
+      <c r="D12" s="26">
         <v>10583</v>
       </c>
-      <c r="E12" s="32">
+      <c r="E12" s="26">
         <v>14837</v>
       </c>
-      <c r="F12" s="32">
+      <c r="F12" s="26">
         <v>1559</v>
       </c>
-      <c r="G12" s="33">
+      <c r="G12" s="27">
         <v>11462</v>
       </c>
     </row>
@@ -1285,53 +1351,53 @@
       <c r="B13" s="18" t="s">
         <v>16</v>
       </c>
-      <c r="C13" s="34">
+      <c r="C13" s="28">
         <v>14531</v>
       </c>
-      <c r="D13" s="37">
+      <c r="D13" s="31">
         <v>10445</v>
       </c>
-      <c r="E13" s="35">
+      <c r="E13" s="29">
         <v>9707</v>
       </c>
-      <c r="F13" s="35">
+      <c r="F13" s="29">
         <v>13496</v>
       </c>
-      <c r="G13" s="36">
+      <c r="G13" s="30">
         <v>3533</v>
       </c>
     </row>
     <row r="14" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B14" s="1"/>
-      <c r="D14" s="39"/>
+      <c r="D14" s="33"/>
     </row>
     <row r="15" spans="2:10" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="D15" s="40">
+      <c r="D15" s="34">
         <v>2013</v>
       </c>
     </row>
     <row r="16" spans="2:10" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="D16" s="40">
+      <c r="D16" s="34">
         <v>2014</v>
       </c>
     </row>
     <row r="17" spans="4:4" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="D17" s="40">
+      <c r="D17" s="34">
         <v>2015</v>
       </c>
     </row>
     <row r="18" spans="4:4" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="D18" s="40">
+      <c r="D18" s="34">
         <v>2016</v>
       </c>
     </row>
     <row r="19" spans="4:4" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="D19" s="40">
+      <c r="D19" s="34">
         <v>2017</v>
       </c>
     </row>
     <row r="20" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D20" s="38"/>
+      <c r="D20" s="32"/>
     </row>
   </sheetData>
   <mergeCells count="3">
@@ -1340,7 +1406,7 @@
     <mergeCell ref="B3:G3"/>
   </mergeCells>
   <conditionalFormatting sqref="C6:G13">
-    <cfRule type="expression" dxfId="2" priority="1">
+    <cfRule type="expression" dxfId="3" priority="1">
       <formula>IF((ROW($C6)-5)=$J$6,(COLUMN(C$6)-2)=$J$7)</formula>
     </cfRule>
   </conditionalFormatting>
@@ -1439,6 +1505,28 @@
             </control>
           </mc:Choice>
         </mc:AlternateContent>
+        <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+          <mc:Choice Requires="x14">
+            <control shapeId="1029" r:id="rId8" name="Scroll Bar 5">
+              <controlPr defaultSize="0" autoPict="0">
+                <anchor moveWithCells="1">
+                  <from>
+                    <xdr:col>10</xdr:col>
+                    <xdr:colOff>790575</xdr:colOff>
+                    <xdr:row>0</xdr:row>
+                    <xdr:rowOff>161925</xdr:rowOff>
+                  </from>
+                  <to>
+                    <xdr:col>11</xdr:col>
+                    <xdr:colOff>200025</xdr:colOff>
+                    <xdr:row>5</xdr:row>
+                    <xdr:rowOff>19050</xdr:rowOff>
+                  </to>
+                </anchor>
+              </controlPr>
+            </control>
+          </mc:Choice>
+        </mc:AlternateContent>
       </controls>
     </mc:Choice>
   </mc:AlternateContent>
@@ -1450,31 +1538,34 @@
   <dimension ref="B2:M16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="J6" sqref="J6"/>
+      <selection activeCell="I10" sqref="I10:J10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
+    <col min="1" max="1" width="3" customWidth="1"/>
     <col min="2" max="2" width="19" bestFit="1" customWidth="1"/>
     <col min="3" max="7" width="11.7109375" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="3.85546875" customWidth="1"/>
     <col min="9" max="9" width="7.140625" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="11.7109375" customWidth="1"/>
-    <col min="12" max="12" width="9.85546875" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="9.42578125" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="5.28515625" customWidth="1"/>
+    <col min="12" max="12" width="10" customWidth="1"/>
+    <col min="13" max="13" width="11.42578125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="2" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B2" s="1"/>
     </row>
     <row r="3" spans="2:13" ht="26.25" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B3" s="24" t="s">
+      <c r="B3" s="37" t="s">
         <v>8</v>
       </c>
-      <c r="C3" s="24"/>
-      <c r="D3" s="24"/>
-      <c r="E3" s="24"/>
-      <c r="F3" s="24"/>
-      <c r="G3" s="24"/>
+      <c r="C3" s="37"/>
+      <c r="D3" s="37"/>
+      <c r="E3" s="37"/>
+      <c r="F3" s="37"/>
+      <c r="G3" s="37"/>
     </row>
     <row r="4" spans="2:13" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
       <c r="B4" s="1"/>
@@ -1498,14 +1589,14 @@
       <c r="G5" s="21">
         <v>2017</v>
       </c>
-      <c r="I5" s="25" t="s">
+      <c r="I5" s="38" t="s">
         <v>1</v>
       </c>
-      <c r="J5" s="25"/>
-      <c r="L5" s="25" t="s">
+      <c r="J5" s="38"/>
+      <c r="L5" s="38" t="s">
         <v>5</v>
       </c>
-      <c r="M5" s="25"/>
+      <c r="M5" s="38"/>
     </row>
     <row r="6" spans="2:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B6" s="16" t="s">
@@ -1529,11 +1620,16 @@
       <c r="I6" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="J6" s="6"/>
+      <c r="J6" s="6">
+        <f>MATCH(M6,B6:B13,0)</f>
+        <v>6</v>
+      </c>
       <c r="L6" s="5" t="s">
-        <v>0</v>
-      </c>
-      <c r="M6" s="15"/>
+        <v>18</v>
+      </c>
+      <c r="M6" s="15" t="s">
+        <v>14</v>
+      </c>
     </row>
     <row r="7" spans="2:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B7" s="17" t="s">
@@ -1557,11 +1653,16 @@
       <c r="I7" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="J7" s="6"/>
+      <c r="J7" s="6">
+        <f>MATCH(M7,C5:G5,0)</f>
+        <v>4</v>
+      </c>
       <c r="L7" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="M7" s="15"/>
+      <c r="M7" s="15">
+        <v>2016</v>
+      </c>
     </row>
     <row r="8" spans="2:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B8" s="17" t="s">
@@ -1602,10 +1703,10 @@
       <c r="G9" s="9">
         <v>2794</v>
       </c>
-      <c r="I9" s="25" t="s">
+      <c r="I9" s="38" t="s">
         <v>4</v>
       </c>
-      <c r="J9" s="25"/>
+      <c r="J9" s="38"/>
     </row>
     <row r="10" spans="2:13" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B10" s="17" t="s">
@@ -1626,8 +1727,11 @@
       <c r="G10" s="9">
         <v>14077</v>
       </c>
-      <c r="I10" s="26"/>
-      <c r="J10" s="27"/>
+      <c r="I10" s="39">
+        <f>INDEX(C6:G13,J6,J7)</f>
+        <v>2915</v>
+      </c>
+      <c r="J10" s="40"/>
     </row>
     <row r="11" spans="2:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B11" s="17" t="s">
@@ -1729,34 +1833,36 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B3:J13"/>
+  <dimension ref="B3:K13"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B5" sqref="B5"/>
+    <sheetView showFormulas="1" tabSelected="1" topLeftCell="J1" zoomScale="220" zoomScaleNormal="220" workbookViewId="0">
+      <selection activeCell="J11" sqref="J11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="2" max="2" width="19" bestFit="1" customWidth="1"/>
     <col min="3" max="7" width="11.7109375" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="3.28515625" customWidth="1"/>
     <col min="9" max="9" width="9.85546875" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="11.85546875" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="24.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="2:10" ht="26.25" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B3" s="24" t="s">
+    <row r="3" spans="2:11" ht="26.25" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="B3" s="37" t="s">
         <v>8</v>
       </c>
-      <c r="C3" s="24"/>
-      <c r="D3" s="24"/>
-      <c r="E3" s="24"/>
-      <c r="F3" s="24"/>
-      <c r="G3" s="24"/>
-    </row>
-    <row r="4" spans="2:10" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="C3" s="37"/>
+      <c r="D3" s="37"/>
+      <c r="E3" s="37"/>
+      <c r="F3" s="37"/>
+      <c r="G3" s="37"/>
+    </row>
+    <row r="4" spans="2:11" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
       <c r="B4" s="1"/>
     </row>
-    <row r="5" spans="2:10" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="5" spans="2:11" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B5" s="19" t="s">
         <v>17</v>
       </c>
@@ -1775,12 +1881,12 @@
       <c r="G5" s="21">
         <v>2017</v>
       </c>
-      <c r="I5" s="25" t="s">
+      <c r="I5" s="38" t="s">
         <v>4</v>
       </c>
-      <c r="J5" s="25"/>
-    </row>
-    <row r="6" spans="2:10" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="J5" s="38"/>
+    </row>
+    <row r="6" spans="2:11" ht="18.75" x14ac:dyDescent="0.3">
       <c r="B6" s="16" t="s">
         <v>9</v>
       </c>
@@ -1799,10 +1905,13 @@
       <c r="G6" s="4">
         <v>344</v>
       </c>
-      <c r="I6" s="26"/>
-      <c r="J6" s="27"/>
-    </row>
-    <row r="7" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="I6" s="39">
+        <f>INDEX(C6:G13,MATCH(J10,B6:B13,0),MATCH(J11,C5:G5,0))</f>
+        <v>11979</v>
+      </c>
+      <c r="J6" s="40"/>
+    </row>
+    <row r="7" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B7" s="17" t="s">
         <v>10</v>
       </c>
@@ -1822,7 +1931,7 @@
         <v>7844</v>
       </c>
     </row>
-    <row r="8" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="8" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B8" s="17" t="s">
         <v>11</v>
       </c>
@@ -1842,7 +1951,7 @@
         <v>2706</v>
       </c>
     </row>
-    <row r="9" spans="2:10" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="9" spans="2:11" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B9" s="17" t="s">
         <v>12</v>
       </c>
@@ -1861,12 +1970,12 @@
       <c r="G9" s="9">
         <v>2794</v>
       </c>
-      <c r="I9" s="25" t="s">
+      <c r="I9" s="38" t="s">
         <v>5</v>
       </c>
-      <c r="J9" s="25"/>
-    </row>
-    <row r="10" spans="2:10" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="J9" s="38"/>
+    </row>
+    <row r="10" spans="2:11" ht="18.75" x14ac:dyDescent="0.25">
       <c r="B10" s="17" t="s">
         <v>13</v>
       </c>
@@ -1888,9 +1997,15 @@
       <c r="I10" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="J10" s="15"/>
-    </row>
-    <row r="11" spans="2:10" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="J10" s="15" t="s">
+        <v>14</v>
+      </c>
+      <c r="K10" s="41">
+        <f>VLOOKUP(J10,B6:G13,MATCH(J11,C5:G5,0)+1,FALSE)</f>
+        <v>11979</v>
+      </c>
+    </row>
+    <row r="11" spans="2:11" ht="18.75" x14ac:dyDescent="0.25">
       <c r="B11" s="17" t="s">
         <v>14</v>
       </c>
@@ -1912,9 +2027,15 @@
       <c r="I11" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="J11" s="15"/>
-    </row>
-    <row r="12" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="J11" s="15">
+        <v>2014</v>
+      </c>
+      <c r="K11" s="41">
+        <f>HLOOKUP(J11,C5:G12,MATCH(J10,B6:B13,0)+1,FALSE)</f>
+        <v>11979</v>
+      </c>
+    </row>
+    <row r="12" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B12" s="17" t="s">
         <v>15</v>
       </c>
@@ -1934,7 +2055,7 @@
         <v>11462</v>
       </c>
     </row>
-    <row r="13" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="13" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B13" s="18" t="s">
         <v>16</v>
       </c>
@@ -1962,7 +2083,7 @@
     <mergeCell ref="I6:J6"/>
   </mergeCells>
   <conditionalFormatting sqref="C6:G13">
-    <cfRule type="expression" dxfId="0" priority="1">
+    <cfRule type="expression" dxfId="2" priority="1">
       <formula>IF((ROW(C6)-5)=#REF!,(COLUMN(C6)-2)=#REF!)</formula>
     </cfRule>
   </conditionalFormatting>
